--- a/Project/data/future_api_data.xlsx
+++ b/Project/data/future_api_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="2" activeTab="8" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="600" firstSheet="0" activeTab="7" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" state="visible" r:id="rId1"/>
@@ -26,7 +26,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="3">
     <font>
       <name val="等线"/>
       <family val="2"/>
@@ -48,21 +48,6 @@
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <family val="3"/>
-      <color indexed="81"/>
-      <sz val="9"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <family val="3"/>
-      <b val="1"/>
-      <color indexed="81"/>
-      <sz val="9"/>
     </font>
   </fonts>
   <fills count="2">
@@ -135,6 +120,74 @@
     <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -439,23 +492,23 @@
   </sheetPr>
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col width="9" customWidth="1" style="2" min="1" max="1"/>
-    <col width="9.109375" customWidth="1" style="2" min="2" max="2"/>
-    <col width="27.77734375" customWidth="1" style="2" min="3" max="3"/>
-    <col width="7.33203125" customWidth="1" style="2" min="4" max="4"/>
+    <col width="9.125" customWidth="1" style="2" min="2" max="2"/>
+    <col width="27.75" customWidth="1" style="2" min="3" max="3"/>
+    <col width="7.375" customWidth="1" style="2" min="4" max="4"/>
     <col width="17" customWidth="1" style="2" min="5" max="5"/>
-    <col width="76.6640625" customWidth="1" style="2" min="6" max="6"/>
-    <col width="40.33203125" customWidth="1" style="2" min="7" max="7"/>
-    <col width="13.88671875" customWidth="1" style="2" min="8" max="8"/>
-    <col width="54.109375" customWidth="1" style="3" min="9" max="9"/>
-    <col width="9" customWidth="1" style="2" min="10" max="49"/>
-    <col width="9" customWidth="1" style="2" min="50" max="16384"/>
+    <col width="76.625" customWidth="1" style="2" min="6" max="6"/>
+    <col width="40.375" customWidth="1" style="2" min="7" max="7"/>
+    <col width="13.875" customWidth="1" style="2" min="8" max="8"/>
+    <col width="54.125" customWidth="1" style="3" min="9" max="9"/>
+    <col width="9" customWidth="1" style="2" min="10" max="50"/>
+    <col width="9" customWidth="1" style="2" min="51" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,11 +592,6 @@
           <t>{"code": 0, "msg": "OK"}</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
           <t>SELECT * FROM futureloan.member WHERE mobile_phone ="#phone#"</t>
@@ -584,11 +632,6 @@
           <t>{"code": 0, "msg": "OK"}</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
           <t>SELECT * FROM futureloan.member WHERE mobile_phone ="#phone#"</t>
@@ -629,11 +672,6 @@
           <t>{"code": 0, "msg": "OK"}</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
           <t>SELECT * FROM futureloan.member WHERE mobile_phone ="#phone#"</t>
@@ -674,11 +712,6 @@
           <t>{"code": 1, "msg": "手机号为空"}</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -714,11 +747,6 @@
           <t>{"code": 1, "msg": "密码为空"}</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -754,11 +782,6 @@
           <t>{"code": 2, "msg": "格式错误"}</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>未通过</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -794,11 +817,6 @@
           <t>{"code": 1, "msg": "手机号为空"}</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -834,11 +852,6 @@
           <t>{"code": 2, "msg": "密码格式为8到16位"}</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -874,11 +887,6 @@
           <t>{"code": 2, "msg": "密码格式为8到16位"}</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -914,11 +922,6 @@
           <t>{"code": 2, "msg": "用户昵称长度超过10位"}</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -954,11 +957,6 @@
           <t>{"code": 2, "msg": "账号已存在"}</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>未通过</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -992,11 +990,6 @@
       <c r="G13" s="3" t="inlineStr">
         <is>
           <t>{"code": 2, "msg": "无效的手机格式"}</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>未通过</t>
         </is>
       </c>
     </row>
@@ -1018,14 +1011,14 @@
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
   <cols>
-    <col width="11.44140625" customWidth="1" style="2" min="2" max="2"/>
+    <col width="11.5" customWidth="1" style="2" min="2" max="2"/>
     <col width="18" customWidth="1" style="2" min="3" max="3"/>
-    <col width="13.21875" customWidth="1" style="2" min="4" max="4"/>
-    <col width="26.88671875" customWidth="1" style="2" min="5" max="6"/>
-    <col width="20.33203125" customWidth="1" style="2" min="7" max="7"/>
-    <col width="13.88671875" customWidth="1" style="2" min="8" max="8"/>
+    <col width="13.25" customWidth="1" style="2" min="4" max="4"/>
+    <col width="26.875" customWidth="1" style="2" min="5" max="6"/>
+    <col width="20.375" customWidth="1" style="2" min="7" max="7"/>
+    <col width="13.875" customWidth="1" style="2" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1104,14 +1097,14 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
   <cols>
-    <col width="11.44140625" customWidth="1" style="2" min="2" max="2"/>
-    <col width="30.88671875" customWidth="1" style="2" min="3" max="3"/>
-    <col width="13.21875" customWidth="1" style="2" min="4" max="4"/>
-    <col width="26.88671875" customWidth="1" style="2" min="5" max="6"/>
-    <col width="20.33203125" customWidth="1" style="2" min="7" max="7"/>
-    <col width="13.88671875" customWidth="1" style="2" min="8" max="8"/>
+    <col width="11.5" customWidth="1" style="2" min="2" max="2"/>
+    <col width="30.875" customWidth="1" style="2" min="3" max="3"/>
+    <col width="13.25" customWidth="1" style="2" min="4" max="4"/>
+    <col width="26.875" customWidth="1" style="2" min="5" max="6"/>
+    <col width="20.375" customWidth="1" style="2" min="7" max="7"/>
+    <col width="13.875" customWidth="1" style="2" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1206,18 +1199,18 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="H2" sqref="H2:H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
   <cols>
-    <col width="7.77734375" customWidth="1" style="2" min="2" max="2"/>
-    <col width="32.44140625" customWidth="1" style="2" min="3" max="3"/>
-    <col width="7.6640625" customWidth="1" style="2" min="4" max="4"/>
-    <col width="14.109375" customWidth="1" style="2" min="5" max="5"/>
-    <col width="47.44140625" customWidth="1" style="2" min="6" max="6"/>
-    <col width="43.109375" customWidth="1" style="2" min="7" max="7"/>
-    <col width="13.88671875" customWidth="1" style="2" min="8" max="8"/>
+    <col width="7.75" customWidth="1" style="2" min="2" max="2"/>
+    <col width="32.5" customWidth="1" style="2" min="3" max="3"/>
+    <col width="7.625" customWidth="1" style="2" min="4" max="4"/>
+    <col width="14.125" customWidth="1" style="2" min="5" max="5"/>
+    <col width="47.5" customWidth="1" style="2" min="6" max="6"/>
+    <col width="43.125" customWidth="1" style="2" min="7" max="7"/>
+    <col width="13.875" customWidth="1" style="2" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1557,18 +1550,18 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="H2" sqref="H2:H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
   <cols>
-    <col width="11.44140625" customWidth="1" style="2" min="2" max="2"/>
+    <col width="11.5" customWidth="1" style="2" min="2" max="2"/>
     <col width="47" customWidth="1" style="2" min="3" max="3"/>
-    <col width="9.21875" customWidth="1" style="2" min="4" max="4"/>
-    <col width="21.109375" customWidth="1" style="2" min="5" max="5"/>
-    <col width="50.6640625" customWidth="1" style="2" min="6" max="6"/>
-    <col width="50.33203125" customWidth="1" style="2" min="7" max="7"/>
-    <col width="13.88671875" customWidth="1" style="2" min="8" max="8"/>
+    <col width="9.25" customWidth="1" style="2" min="4" max="4"/>
+    <col width="21.125" customWidth="1" style="2" min="5" max="5"/>
+    <col width="50.625" customWidth="1" style="2" min="6" max="6"/>
+    <col width="50.375" customWidth="1" style="2" min="7" max="7"/>
+    <col width="13.875" customWidth="1" style="2" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2188,18 +2181,18 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="H2" sqref="H2:H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
   <cols>
-    <col width="9.109375" customWidth="1" style="2" min="2" max="2"/>
-    <col width="37.5546875" customWidth="1" style="2" min="3" max="3"/>
-    <col width="13.5546875" customWidth="1" style="2" min="4" max="4"/>
-    <col width="21.44140625" customWidth="1" style="2" min="5" max="5"/>
-    <col width="55.88671875" customWidth="1" style="2" min="6" max="6"/>
-    <col width="46.33203125" customWidth="1" style="2" min="7" max="7"/>
-    <col width="13.88671875" customWidth="1" style="2" min="8" max="8"/>
+    <col width="9.125" customWidth="1" style="2" min="2" max="2"/>
+    <col width="37.5" customWidth="1" style="2" min="3" max="3"/>
+    <col width="13.5" customWidth="1" style="2" min="4" max="4"/>
+    <col width="21.5" customWidth="1" style="2" min="5" max="5"/>
+    <col width="55.875" customWidth="1" style="2" min="6" max="6"/>
+    <col width="46.375" customWidth="1" style="2" min="7" max="7"/>
+    <col width="13.875" customWidth="1" style="2" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2440,7 +2433,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>未通过</t>
+          <t>通过</t>
         </is>
       </c>
     </row>
@@ -2737,22 +2730,22 @@
   </sheetPr>
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col width="7.5546875" customWidth="1" style="11" min="1" max="1"/>
+    <col width="7.5" customWidth="1" style="11" min="1" max="1"/>
     <col width="8" customWidth="1" style="11" min="2" max="2"/>
     <col width="18" customWidth="1" style="12" min="3" max="3"/>
-    <col width="7.88671875" customWidth="1" style="11" min="4" max="4"/>
-    <col width="10.6640625" customWidth="1" style="11" min="5" max="5"/>
-    <col width="26.88671875" customWidth="1" style="14" min="6" max="6"/>
-    <col width="22.88671875" customWidth="1" style="14" min="7" max="7"/>
-    <col width="13.88671875" customWidth="1" style="11" min="8" max="8"/>
-    <col width="8.88671875" customWidth="1" style="14" min="9" max="30"/>
-    <col width="8.88671875" customWidth="1" style="14" min="31" max="16384"/>
+    <col width="7.875" customWidth="1" style="11" min="4" max="4"/>
+    <col width="10.625" customWidth="1" style="11" min="5" max="5"/>
+    <col width="26.875" customWidth="1" style="14" min="6" max="6"/>
+    <col width="22.875" customWidth="1" style="14" min="7" max="7"/>
+    <col width="13.875" customWidth="1" style="11" min="8" max="8"/>
+    <col width="8.875" customWidth="1" style="14" min="9" max="31"/>
+    <col width="8.875" customWidth="1" style="14" min="32" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2802,7 +2795,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="124.2" customHeight="1" s="2">
+    <row r="2" ht="124.15" customHeight="1" s="2">
       <c r="A2" s="11" t="n">
         <v>1</v>
       </c>
@@ -2844,13 +2837,13 @@
           <t>{'code':0,'msg':'OK'}</t>
         </is>
       </c>
-      <c r="H2" s="11" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="124.2" customHeight="1" s="2">
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="124.15" customHeight="1" s="2">
       <c r="A3" s="11" t="n">
         <v>2</v>
       </c>
@@ -2892,13 +2885,13 @@
           <t>{'code':0,'msg':'OK'}</t>
         </is>
       </c>
-      <c r="H3" s="11" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="124.2" customHeight="1" s="2">
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="124.15" customHeight="1" s="2">
       <c r="A4" s="11" t="n">
         <v>3</v>
       </c>
@@ -2940,13 +2933,13 @@
           <t>{'code':0,'msg':'OK'}</t>
         </is>
       </c>
-      <c r="H4" s="11" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="124.2" customHeight="1" s="2">
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="124.15" customHeight="1" s="2">
       <c r="A5" s="11" t="n">
         <v>4</v>
       </c>
@@ -2988,13 +2981,13 @@
           <t>{'code':0,'msg':'OK'}</t>
         </is>
       </c>
-      <c r="H5" s="11" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="124.2" customHeight="1" s="2">
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="124.15" customHeight="1" s="2">
       <c r="A6" s="11" t="n">
         <v>5</v>
       </c>
@@ -3036,13 +3029,13 @@
           <t>{'code':0,'msg':'OK'}</t>
         </is>
       </c>
-      <c r="H6" s="11" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="124.2" customHeight="1" s="2">
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="124.15" customHeight="1" s="2">
       <c r="A7" s="11" t="n">
         <v>6</v>
       </c>
@@ -3084,13 +3077,13 @@
           <t>{'code':0,'msg':'OK'}</t>
         </is>
       </c>
-      <c r="H7" s="11" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="124.2" customHeight="1" s="2">
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="124.15" customHeight="1" s="2">
       <c r="A8" s="11" t="n">
         <v>7</v>
       </c>
@@ -3132,13 +3125,13 @@
           <t>{'code':0,'msg':'OK'}</t>
         </is>
       </c>
-      <c r="H8" s="11" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="124.2" customHeight="1" s="2">
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="124.15" customHeight="1" s="2">
       <c r="A9" s="11" t="n">
         <v>8</v>
       </c>
@@ -3180,13 +3173,13 @@
           <t>{'code':0,'msg':'OK'}</t>
         </is>
       </c>
-      <c r="H9" s="11" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="124.2" customHeight="1" s="2">
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="124.15" customHeight="1" s="2">
       <c r="A10" s="11" t="n">
         <v>9</v>
       </c>
@@ -3231,13 +3224,13 @@
 }</t>
         </is>
       </c>
-      <c r="H10" s="11" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="124.2" customHeight="1" s="2">
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="124.15" customHeight="1" s="2">
       <c r="A11" s="11" t="n">
         <v>10</v>
       </c>
@@ -3282,13 +3275,13 @@
 }</t>
         </is>
       </c>
-      <c r="H11" s="11" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="124.2" customHeight="1" s="2">
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="124.15" customHeight="1" s="2">
       <c r="A12" s="11" t="n">
         <v>11</v>
       </c>
@@ -3333,13 +3326,13 @@
 }</t>
         </is>
       </c>
-      <c r="H12" s="11" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="124.2" customHeight="1" s="2">
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="124.15" customHeight="1" s="2">
       <c r="A13" s="11" t="n">
         <v>12</v>
       </c>
@@ -3384,13 +3377,13 @@
 }</t>
         </is>
       </c>
-      <c r="H13" s="11" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="124.2" customHeight="1" s="2">
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="124.15" customHeight="1" s="2">
       <c r="A14" s="11" t="n">
         <v>13</v>
       </c>
@@ -3435,13 +3428,13 @@
 }</t>
         </is>
       </c>
-      <c r="H14" s="11" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row r="15" ht="124.2" customHeight="1" s="2">
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="124.15" customHeight="1" s="2">
       <c r="A15" s="11" t="n">
         <v>14</v>
       </c>
@@ -3486,13 +3479,13 @@
 }</t>
         </is>
       </c>
-      <c r="H15" s="11" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row r="16" ht="124.2" customHeight="1" s="2">
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="124.15" customHeight="1" s="2">
       <c r="A16" s="11" t="n">
         <v>15</v>
       </c>
@@ -3537,13 +3530,13 @@
 }</t>
         </is>
       </c>
-      <c r="H16" s="11" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row r="17" ht="124.2" customHeight="1" s="2">
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="124.15" customHeight="1" s="2">
       <c r="A17" s="11" t="n">
         <v>16</v>
       </c>
@@ -3588,13 +3581,13 @@
 }</t>
         </is>
       </c>
-      <c r="H17" s="11" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row r="18" ht="124.2" customHeight="1" s="2">
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="124.15" customHeight="1" s="2">
       <c r="A18" s="11" t="n">
         <v>17</v>
       </c>
@@ -3639,13 +3632,13 @@
 }</t>
         </is>
       </c>
-      <c r="H18" s="11" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row r="19" ht="124.2" customHeight="1" s="2">
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="124.15" customHeight="1" s="2">
       <c r="A19" s="11" t="n">
         <v>18</v>
       </c>
@@ -3690,13 +3683,13 @@
 }</t>
         </is>
       </c>
-      <c r="H19" s="11" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row r="20" ht="124.2" customHeight="1" s="2">
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="124.15" customHeight="1" s="2">
       <c r="A20" s="11" t="n">
         <v>19</v>
       </c>
@@ -3741,13 +3734,13 @@
 }</t>
         </is>
       </c>
-      <c r="H20" s="11" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row r="21" ht="124.2" customHeight="1" s="2">
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="124.15" customHeight="1" s="2">
       <c r="A21" s="11" t="n">
         <v>20</v>
       </c>
@@ -3792,13 +3785,13 @@
 }</t>
         </is>
       </c>
-      <c r="H21" s="11" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row r="22" ht="124.2" customHeight="1" s="2">
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="124.15" customHeight="1" s="2">
       <c r="A22" s="11" t="n">
         <v>21</v>
       </c>
@@ -3843,7 +3836,7 @@
 }</t>
         </is>
       </c>
-      <c r="H22" s="11" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
@@ -3864,21 +3857,21 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="H2" sqref="H2:H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
     <col width="7" customWidth="1" style="11" min="1" max="1"/>
-    <col width="9.33203125" customWidth="1" style="11" min="2" max="2"/>
+    <col width="9.375" customWidth="1" style="11" min="2" max="2"/>
     <col width="15" customWidth="1" style="7" min="3" max="3"/>
-    <col width="8.6640625" customWidth="1" style="11" min="4" max="4"/>
-    <col width="11.21875" customWidth="1" style="6" min="5" max="5"/>
-    <col width="54.44140625" customWidth="1" style="6" min="6" max="6"/>
+    <col width="8.625" customWidth="1" style="11" min="4" max="4"/>
+    <col width="11.25" customWidth="1" style="6" min="5" max="5"/>
+    <col width="54.5" customWidth="1" style="6" min="6" max="6"/>
     <col width="34" customWidth="1" style="6" min="7" max="7"/>
-    <col width="13.88671875" customWidth="1" style="11" min="8" max="8"/>
-    <col width="8.88671875" customWidth="1" style="6" min="9" max="30"/>
-    <col width="8.88671875" customWidth="1" style="6" min="31" max="16384"/>
+    <col width="13.875" customWidth="1" style="11" min="8" max="8"/>
+    <col width="8.875" customWidth="1" style="6" min="9" max="31"/>
+    <col width="8.875" customWidth="1" style="6" min="32" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3923,7 +3916,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="55.2" customHeight="1" s="2">
+    <row r="2" ht="55.15" customHeight="1" s="2">
       <c r="A2" s="11" t="n">
         <v>1</v>
       </c>
@@ -3960,13 +3953,13 @@
 }</t>
         </is>
       </c>
-      <c r="H2" s="11" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="55.2" customHeight="1" s="2">
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="55.15" customHeight="1" s="2">
       <c r="A3" s="11" t="n">
         <v>2</v>
       </c>
@@ -4003,13 +3996,13 @@
 }</t>
         </is>
       </c>
-      <c r="H3" s="11" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="55.2" customHeight="1" s="2">
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="55.15" customHeight="1" s="2">
       <c r="A4" s="11" t="n">
         <v>3</v>
       </c>
@@ -4046,7 +4039,7 @@
 }</t>
         </is>
       </c>
-      <c r="H4" s="11" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
@@ -4089,13 +4082,13 @@
 }</t>
         </is>
       </c>
-      <c r="H5" s="11" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="82.8" customHeight="1" s="2">
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="82.90000000000001" customHeight="1" s="2">
       <c r="A6" s="11" t="n">
         <v>5</v>
       </c>
@@ -4132,13 +4125,13 @@
 }</t>
         </is>
       </c>
-      <c r="H6" s="11" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="82.8" customHeight="1" s="2">
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="82.90000000000001" customHeight="1" s="2">
       <c r="A7" s="11" t="n">
         <v>6</v>
       </c>
@@ -4175,13 +4168,13 @@
 }</t>
         </is>
       </c>
-      <c r="H7" s="11" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>未通过</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="82.8" customHeight="1" s="2">
+    <row r="8" ht="82.90000000000001" customHeight="1" s="2">
       <c r="A8" s="11" t="n">
         <v>7</v>
       </c>
@@ -4218,7 +4211,7 @@
 }</t>
         </is>
       </c>
-      <c r="H8" s="11" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
@@ -4239,22 +4232,22 @@
   </sheetPr>
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView topLeftCell="D7" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col width="8.88671875" customWidth="1" style="6" min="1" max="1"/>
-    <col width="9.109375" customWidth="1" style="6" min="2" max="2"/>
+    <col width="8.875" customWidth="1" style="6" min="1" max="1"/>
+    <col width="9.125" customWidth="1" style="6" min="2" max="2"/>
     <col width="25" customWidth="1" style="7" min="3" max="3"/>
-    <col width="8.33203125" customWidth="1" style="6" min="4" max="4"/>
-    <col width="18.44140625" customWidth="1" style="6" min="5" max="5"/>
-    <col width="42.21875" customWidth="1" style="7" min="6" max="6"/>
-    <col width="21.88671875" customWidth="1" style="6" min="7" max="7"/>
-    <col width="13.88671875" customWidth="1" style="11" min="8" max="8"/>
-    <col width="8.88671875" customWidth="1" style="6" min="9" max="22"/>
-    <col width="8.88671875" customWidth="1" style="6" min="23" max="16384"/>
+    <col width="8.375" customWidth="1" style="6" min="4" max="4"/>
+    <col width="18.5" customWidth="1" style="6" min="5" max="5"/>
+    <col width="42.25" customWidth="1" style="7" min="6" max="6"/>
+    <col width="21.875" customWidth="1" style="6" min="7" max="7"/>
+    <col width="13.875" customWidth="1" style="11" min="8" max="8"/>
+    <col width="8.875" customWidth="1" style="6" min="9" max="23"/>
+    <col width="8.875" customWidth="1" style="6" min="24" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4340,7 +4333,7 @@
 }</t>
         </is>
       </c>
-      <c r="H2" s="11" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
@@ -4387,7 +4380,7 @@
 }</t>
         </is>
       </c>
-      <c r="H3" s="11" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
@@ -4434,7 +4427,7 @@
 }</t>
         </is>
       </c>
-      <c r="H4" s="11" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
@@ -4481,7 +4474,7 @@
 }</t>
         </is>
       </c>
-      <c r="H5" s="11" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
@@ -4528,7 +4521,7 @@
 }</t>
         </is>
       </c>
-      <c r="H6" s="11" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
@@ -4575,13 +4568,13 @@
 }</t>
         </is>
       </c>
-      <c r="H7" s="11" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="82.8" customHeight="1" s="2">
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="82.90000000000001" customHeight="1" s="2">
       <c r="A8" s="6" t="n">
         <v>7</v>
       </c>
@@ -4622,13 +4615,13 @@
 }</t>
         </is>
       </c>
-      <c r="H8" s="11" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="82.8" customHeight="1" s="2">
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="82.90000000000001" customHeight="1" s="2">
       <c r="A9" s="6" t="n">
         <v>8</v>
       </c>
@@ -4669,13 +4662,13 @@
 }</t>
         </is>
       </c>
-      <c r="H9" s="11" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="82.8" customHeight="1" s="2">
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="82.90000000000001" customHeight="1" s="2">
       <c r="A10" s="6" t="n">
         <v>9</v>
       </c>
@@ -4716,7 +4709,7 @@
 }</t>
         </is>
       </c>
-      <c r="H10" s="11" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>未通过</t>
         </is>
@@ -4763,7 +4756,7 @@
 }</t>
         </is>
       </c>
-      <c r="H11" s="11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
@@ -4784,22 +4777,22 @@
   </sheetPr>
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col width="6.88671875" customWidth="1" style="11" min="1" max="1"/>
-    <col width="9.109375" customWidth="1" style="6" min="2" max="2"/>
-    <col width="22.88671875" customWidth="1" style="6" min="3" max="3"/>
-    <col width="8.33203125" customWidth="1" style="11" min="4" max="4"/>
-    <col width="16.21875" customWidth="1" style="11" min="5" max="5"/>
-    <col width="35.109375" customWidth="1" style="7" min="6" max="6"/>
-    <col width="20.33203125" customWidth="1" style="6" min="7" max="7"/>
-    <col width="13.88671875" customWidth="1" style="6" min="8" max="8"/>
-    <col width="8.88671875" customWidth="1" style="6" min="9" max="30"/>
-    <col width="8.88671875" customWidth="1" style="6" min="31" max="16384"/>
+    <col width="6.875" customWidth="1" style="11" min="1" max="1"/>
+    <col width="9.125" customWidth="1" style="6" min="2" max="2"/>
+    <col width="22.875" customWidth="1" style="6" min="3" max="3"/>
+    <col width="8.375" customWidth="1" style="11" min="4" max="4"/>
+    <col width="16.25" customWidth="1" style="11" min="5" max="5"/>
+    <col width="35.125" customWidth="1" style="7" min="6" max="6"/>
+    <col width="20.375" customWidth="1" style="6" min="7" max="7"/>
+    <col width="13.875" customWidth="1" style="6" min="8" max="8"/>
+    <col width="8.875" customWidth="1" style="6" min="9" max="31"/>
+    <col width="8.875" customWidth="1" style="6" min="32" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4844,7 +4837,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="55.2" customHeight="1" s="2">
+    <row r="2" ht="55.15" customHeight="1" s="2">
       <c r="A2" s="11" t="n">
         <v>1</v>
       </c>
@@ -4882,7 +4875,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="55.2" customHeight="1" s="2">
+    <row r="3" ht="55.15" customHeight="1" s="2">
       <c r="A3" s="11" t="n">
         <v>2</v>
       </c>
@@ -4920,7 +4913,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="55.2" customHeight="1" s="2">
+    <row r="4" ht="55.15" customHeight="1" s="2">
       <c r="A4" s="11" t="n">
         <v>3</v>
       </c>
@@ -4958,7 +4951,7 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="55.2" customHeight="1" s="2">
+    <row r="5" ht="55.15" customHeight="1" s="2">
       <c r="A5" s="11" t="n">
         <v>4</v>
       </c>
@@ -5123,21 +5116,21 @@
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col width="8.88671875" customWidth="1" style="6" min="1" max="1"/>
+    <col width="8.875" customWidth="1" style="6" min="1" max="1"/>
     <col width="20" customWidth="1" style="6" min="2" max="2"/>
     <col width="18" customWidth="1" style="6" min="3" max="3"/>
-    <col width="13.21875" customWidth="1" style="6" min="4" max="4"/>
-    <col width="26.88671875" customWidth="1" style="6" min="5" max="6"/>
-    <col width="20.33203125" customWidth="1" style="6" min="7" max="7"/>
-    <col width="13.88671875" customWidth="1" style="6" min="8" max="8"/>
-    <col width="8.88671875" customWidth="1" style="6" min="9" max="30"/>
-    <col width="8.88671875" customWidth="1" style="6" min="31" max="16384"/>
+    <col width="13.25" customWidth="1" style="6" min="4" max="4"/>
+    <col width="26.875" customWidth="1" style="6" min="5" max="6"/>
+    <col width="20.375" customWidth="1" style="6" min="7" max="7"/>
+    <col width="13.875" customWidth="1" style="6" min="8" max="8"/>
+    <col width="8.875" customWidth="1" style="6" min="9" max="31"/>
+    <col width="8.875" customWidth="1" style="6" min="32" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5182,7 +5175,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="55.2" customHeight="1" s="2">
+    <row r="2" ht="55.15" customHeight="1" s="2">
       <c r="B2" s="7" t="inlineStr">
         <is>
           <t>user_info</t>
